--- a/Excel/ExcelDAI-Libro1.xlsx
+++ b/Excel/ExcelDAI-Libro1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afranzonv\OneDrive - INSTITUTO TECNOLOGICO AUTONOMO DE MEXICO\otoño0318-clases\DAI\Clase1106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrodriguort\Desktop\DLL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Referencias" sheetId="3" r:id="rId1"/>
@@ -2787,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4716,7 +4716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4755,8 +4757,14 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="G11" s="48">
+        <f ca="1">TODAY()</f>
+        <v>43788</v>
+      </c>
+      <c r="H11" s="49">
+        <f ca="1">NOW()</f>
+        <v>43788.324672569448</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -4819,7 +4827,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
+      <c r="D14" s="51">
+        <f ca="1">YEAR(G11)</f>
+        <v>2019</v>
+      </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -5092,7 +5103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -5177,12 +5188,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="3d413473-fcf3-4de0-89d8-0961202c6d74">113</Lista_x0020_de_x0020_Categor_x00ed_as>
-    <Categor_x00ed_a xmlns="0802d32b-1505-49d7-8ca2-98aeeeeccb41">Parte2 Libros Excel</Categor_x00ed_a>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5325,27 +5336,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="3d413473-fcf3-4de0-89d8-0961202c6d74">113</Lista_x0020_de_x0020_Categor_x00ed_as>
+    <Categor_x00ed_a xmlns="0802d32b-1505-49d7-8ca2-98aeeeeccb41">Parte2 Libros Excel</Categor_x00ed_a>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4638E106-99EF-4C7C-9333-62F5C4AB918C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2724E7F5-4164-4A20-9838-10C1C9484A26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3d413473-fcf3-4de0-89d8-0961202c6d74"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5370,9 +5372,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2724E7F5-4164-4A20-9838-10C1C9484A26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4638E106-99EF-4C7C-9333-62F5C4AB918C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d413473-fcf3-4de0-89d8-0961202c6d74"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>